--- a/data/trans_camb/P26_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P26_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,89</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,08</t>
+          <t>6,31</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,67</t>
+          <t>6,3</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,51</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>8,21</t>
+          <t>3,01</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>10,74</t>
+          <t>6,02</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>6,42</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>6,19</t>
+          <t>5,69</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>9,44</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>8,47</t>
+          <t>-2,55</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>2,16</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>4,18</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>6,37</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>5,99</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>-0,47</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 4,81</t>
+          <t>-0,54; 2,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 9,84</t>
+          <t>0,48; 3,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,58; 16,69</t>
+          <t>4,24; 8,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,56; 10,33</t>
+          <t>2,42; 17,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 5,62</t>
+          <t>-12,1; 3,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,11; 12,66</t>
+          <t>-0,73; 4,37</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,45; 18,95</t>
+          <t>0,88; 5,28</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,65; 16,16</t>
+          <t>3,62; 8,26</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 4,36</t>
+          <t>4,11; 10,76</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,17; 10,32</t>
+          <t>3,01; 8,84</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,51; 16,35</t>
+          <t>-2,53; 4,37</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,85; 12,18</t>
+          <t>-5,74; 0,65</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0,83; 3,63</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>2,75; 5,68</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>4,67; 8,65</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>3,59; 10,93</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>-4,16; 2,9</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>-2,65; 1,7</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>74,48%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>61,83%</t>
+          <t>128,52%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>176,26%</t>
+          <t>380,93%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>90,13%</t>
+          <t>380,16%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>9,67%</t>
+          <t>-6,52%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>72,91%</t>
+          <t>29,34%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>79,76%</t>
+          <t>88,99%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>104,32%</t>
+          <t>178,19%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>7,7%</t>
+          <t>189,97%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>72,06%</t>
+          <t>168,6%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>109,83%</t>
+          <t>10,88%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>98,58%</t>
+          <t>-20,21%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>84,56%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>163,75%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>249,36%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>234,26%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>2,7%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>-5,07%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-54,09; 126,58</t>
+          <t>-25,52; 289,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-14,25; 234,45</t>
+          <t>14,09; 371,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>52,32; 441,4</t>
+          <t>170,94; 863,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,59; 261,96</t>
+          <t>107,31; 1611,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-28,32; 74,54</t>
+          <t>-68,53; 84,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>13,8; 168,55</t>
+          <t>-10,6; 95,57</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,9; 230,09</t>
+          <t>18,32; 202,85</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>35,73; 208,51</t>
+          <t>81,83; 329,45</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-25,29; 62,6</t>
+          <t>83,15; 380,11</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>19,03; 153,14</t>
+          <t>66,42; 342,0</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>49,64; 228,0</t>
+          <t>-22,27; 65,3</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>43,21; 179,98</t>
+          <t>-40,03; 6,18</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>24,46; 181,9</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>87,69; 281,65</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>140,75; 416,78</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>115,89; 496,49</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>-34,68; 44,14</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>-25,12; 20,99</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-5,11</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,32</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,37</t>
+          <t>1,94</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,72</t>
+          <t>2,97</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>8,52</t>
+          <t>3,89</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,59</t>
+          <t>4,39</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>6,95</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>4,1</t>
+          <t>7,72</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>4,38</t>
+          <t>-2,46</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>1,78</t>
+          <t>0,55</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1,75</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>3,38</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>3,91</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>4,83</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>-0,32</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>1,84</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-17,97; 0,74</t>
+          <t>-3,86; 1,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,1; 13,52</t>
+          <t>-0,8; 5,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,9; 5,53</t>
+          <t>-2,29; 3,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-13,02; 7,2</t>
+          <t>-1,65; 4,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 9,22</t>
+          <t>-1,49; 5,75</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 10,62</t>
+          <t>-0,26; 7,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,04; 14,54</t>
+          <t>1,38; 6,9</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 12,04</t>
+          <t>2,11; 6,97</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 4,14</t>
+          <t>4,33; 9,53</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 9,75</t>
+          <t>4,91; 11,15</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 9,22</t>
+          <t>-6,7; 2,11</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 8,01</t>
+          <t>-4,6; 5,78</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-0,26; 3,5</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>1,44; 5,47</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>1,78; 5,74</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>2,62; 6,88</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>-2,96; 2,68</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>-1,5; 4,8</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-54,93%</t>
+          <t>-17,67%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>35,73%</t>
+          <t>100,97%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-9,27%</t>
+          <t>36,65%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-7,62%</t>
+          <t>81,61%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>33,58%</t>
+          <t>45,35%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>46,96%</t>
+          <t>91,58%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>84,82%</t>
+          <t>127,58%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>35,76%</t>
+          <t>144,19%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-5,16%</t>
+          <t>228,12%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>42,28%</t>
+          <t>253,27%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>45,13%</t>
+          <t>-22,86%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>18,3%</t>
+          <t>7,07%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>64,71%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>125,0%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>144,65%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>178,64%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>-4,24%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>34,27%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-90,94; 22,1</t>
+          <t>-82,7; 134,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-60,84; 277,95</t>
+          <t>-46,82; 402,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-76,54; 118,99</t>
+          <t>-66,43; 256,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-81,26; 153,87</t>
+          <t>-58,67; 398,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-27,53; 126,2</t>
+          <t>-30,08; 194,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-13,4; 159,04</t>
+          <t>-12,6; 399,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,44; 212,34</t>
+          <t>24,45; 317,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-35,24; 172,77</t>
+          <t>40,09; 311,94</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-45,59; 55,84</t>
+          <t>90,53; 448,7</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-15,21; 133,31</t>
+          <t>113,47; 517,83</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-20,63; 134,61</t>
+          <t>-53,89; 25,41</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>-39,17; 108,46</t>
+          <t>-44,05; 110,13</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-13,52; 174,27</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>22,6; 277,49</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>33,41; 302,61</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>56,4; 336,53</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>-35,35; 41,59</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>-23,04; 113,48</t>
         </is>
       </c>
     </row>
@@ -1208,60 +1496,90 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,09</t>
+          <t>2,61</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8,3</t>
+          <t>4,68</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>1,0</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-4,26</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>4,08</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>4,71</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>6,28</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>7,88</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-0,09</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>2,12</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>6,44</t>
-        </is>
-      </c>
       <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1,69</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>2,73</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>5,47</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>4,43</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1276,60 +1594,90 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 13,58</t>
+          <t>-0,6; 7,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 7,65</t>
+          <t>-1,94; 3,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 17,64</t>
+          <t>0,74; 9,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>-1,44; 4,96</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-15,08; 4,81</t>
-        </is>
-      </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,88; 11,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,83; 14,69</t>
+          <t>-3,4; 5,54</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
+          <t>-0,07; 9,94</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1,19; 12,46</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>2,52; 16,19</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-6,82; 5,95</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-4,23; 8,44</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>-0,57; 13,48</t>
-        </is>
-      </c>
       <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-0,87; 5,15</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-0,1; 5,69</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>2,41; 9,3</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>1,2; 9,0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1344,60 +1692,90 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>104,11%</t>
+          <t>207,32%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>25,3%</t>
+          <t>66,78%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>211,19%</t>
+          <t>371,72%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>79,44%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-37,75%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>15,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>36,19%</t>
+          <t>20,59%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
+          <t>130,51%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>173,92%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>218,4%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>-1,21%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>28,1%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>85,18%</t>
-        </is>
-      </c>
       <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>69,81%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>112,86%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>225,89%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>183,08%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1422,7 +1800,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-36,46; —</t>
+          <t>-40,36; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1432,40 +1810,70 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-83,73; 111,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-54,48; 233,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-40,77; 244,1</t>
+          <t>-69,27; 272,44</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
+          <t>-11,12; 527,36</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>14,65; 739,22</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>12,7; 798,98</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>-62,15; 152,66</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>-41,97; 204,28</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>-14,14; 317,31</t>
-        </is>
-      </c>
       <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-31,97; 386,93</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-9,61; 420,77</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>55,26; 610,08</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>28,03; 682,51</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,38</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,39</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,21</t>
+          <t>3,93</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,2</t>
+          <t>3,89</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,74</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>7,81</t>
+          <t>3,09</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>9,2</t>
+          <t>5,26</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>6,61</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>4,86</t>
+          <t>6,73</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>7,19</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>7,06</t>
+          <t>-1,9</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>1,94</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>3,7</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>5,3</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>5,35</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>0,47</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>0,05</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 2,01</t>
+          <t>-0,68; 1,99</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 8,83</t>
+          <t>0,61; 3,77</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,21; 10,37</t>
+          <t>2,23; 5,62</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 8,2</t>
+          <t>1,57; 9,74</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 4,61</t>
+          <t>-4,35; 3,75</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,08; 9,62</t>
+          <t>-0,19; 4,17</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,84; 13,86</t>
+          <t>1,68; 4,86</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,88; 13,65</t>
+          <t>3,73; 6,85</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 2,75</t>
+          <t>4,97; 9,0</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>1,6; 7,7</t>
+          <t>4,74; 9,02</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>4,05; 10,9</t>
+          <t>-2,76; 2,18</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>3,8; 9,86</t>
+          <t>-4,73; 0,53</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>0,9; 3,07</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>2,62; 4,89</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>4,05; 6,64</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>3,97; 7,86</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>-2,13; 2,35</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>-1,77; 1,76</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-19,46%</t>
+          <t>39,37%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>47,85%</t>
+          <t>109,57%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>87,61%</t>
+          <t>208,3%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>59,2%</t>
+          <t>206,35%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>11,68%</t>
+          <t>23,46%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>55,61%</t>
+          <t>38,66%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>75,68%</t>
+          <t>94,38%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>89,19%</t>
+          <t>160,49%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>201,76%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>54,7%</t>
+          <t>205,4%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>80,92%</t>
+          <t>-3,3%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>79,49%</t>
+          <t>-16,41%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>74,8%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>142,38%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>204,08%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>205,82%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>5,87%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>0,56%</t>
         </is>
       </c>
     </row>
@@ -1688,75 +2186,112 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-57,73; 44,31</t>
+          <t>-30,47; 146,96</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-26,41; 166,37</t>
+          <t>8,63; 281,68</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>6,87; 215,57</t>
+          <t>57,2; 427,97</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-13,4; 165,48</t>
+          <t>45,41; 597,64</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-21,2; 55,11</t>
+          <t>-44,16; 89,06</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>15,36; 117,19</t>
+          <t>-3,47; 99,03</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>27,87; 149,84</t>
+          <t>40,59; 176,8</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>37,26; 160,42</t>
+          <t>93,05; 259,33</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-24,37; 38,53</t>
+          <t>130,25; 341,17</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>14,91; 107,12</t>
+          <t>120,36; 328,31</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>34,37; 137,21</t>
+          <t>-24,68; 25,41</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>34,18; 134,43</t>
+          <t>-35,96; 5,49</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>25,73; 139,69</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>80,02; 222,05</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>124,23; 302,43</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>121,93; 340,23</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>-21,35; 33,78</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>-18,82; 24,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
